--- a/biology/Botanique/Angraecopsis_tridens/Angraecopsis_tridens.xlsx
+++ b/biology/Botanique/Angraecopsis_tridens/Angraecopsis_tridens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angraecopsis tridens est une espèce de plantes à fleurs de la famille des Orchidaceae et du genre Angraecopsis[3]. C4est une plante tropicale présente sur la ligne montagneuse du Cameroun (au Cameroun et en Guinée équatoriale).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angraecopsis tridens est une espèce de plantes à fleurs de la famille des Orchidaceae et du genre Angraecopsis. C4est une plante tropicale présente sur la ligne montagneuse du Cameroun (au Cameroun et en Guinée équatoriale).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite herbe atteignant 5 cm de hauteur[4]. Proche de Angraecopsis cryptantha, elle en diffère par son éperon et ses pétales plus courts, ainsi que par une inflorescence plus longue[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite herbe atteignant 5 cm de hauteur. Proche de Angraecopsis cryptantha, elle en diffère par son éperon et ses pétales plus courts, ainsi que par une inflorescence plus longue.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Cameroun, l'espèce a été collectée dans les monts Bamboutos, entre Dschang et Fongo-Tongo (région de l'Ouest), et sur plusieurs sites dans la région du Sud-Ouest (Kodmin, Buéa, mont Manengouba, mont Cameroun, Enyandong[4]).
-En Guinée équatoriale, elle a été récoltée à la fois dans la région continentale et sur l'île de Bioko[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Cameroun, l'espèce a été collectée dans les monts Bamboutos, entre Dschang et Fongo-Tongo (région de l'Ouest), et sur plusieurs sites dans la région du Sud-Ouest (Kodmin, Buéa, mont Manengouba, mont Cameroun, Enyandong).
+En Guinée équatoriale, elle a été récoltée à la fois dans la région continentale et sur l'île de Bioko.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe dans les forêts tropicales[7] et subtropicales humides en altitude de 1 000 à 1 700 m. Classée parmi les espèces vulnérables, Angraecopsis tridens risque surtout la perte de son habitat à cause de l'exploitation forestière abusive et la déforestation qui induit la diminution de la taille de sa population[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe dans les forêts tropicales et subtropicales humides en altitude de 1 000 à 1 700 m. Classée parmi les espèces vulnérables, Angraecopsis tridens risque surtout la perte de son habitat à cause de l'exploitation forestière abusive et la déforestation qui induit la diminution de la taille de sa population.
 </t>
         </is>
       </c>
